--- a/src/main/resources/static/example.xlsx
+++ b/src/main/resources/static/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>Danh sách</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Category ID</t>
   </si>
   <si>
-    <t>Gà xào</t>
+    <t>Product name 1</t>
   </si>
   <si>
     <t>dia</t>
@@ -50,34 +50,19 @@
     <t>1.jpg</t>
   </si>
   <si>
-    <t>ga ran</t>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
-    <t>Khoai tây chiên</t>
-  </si>
-  <si>
-    <t>suat</t>
-  </si>
-  <si>
-    <t>khoai.jpg</t>
-  </si>
-  <si>
-    <t>Hello 123</t>
+    <t>Product name 2</t>
+  </si>
+  <si>
+    <t>Product name 4</t>
   </si>
   <si>
     <t>a</t>
   </si>
   <si>
-    <t>aa</t>
-  </si>
-  <si>
-    <t>hemml</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Product name 5</t>
+  </si>
+  <si>
+    <t>test 1</t>
   </si>
 </sst>
 </file>
@@ -122,7 +107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -205,7 +190,7 @@
         <v>1.0</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H4" t="n">
         <v>1.0</v>
@@ -213,25 +198,25 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.0</v>
+      </c>
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="n">
-        <v>124.0</v>
+        <v>999.0</v>
       </c>
       <c r="F5" t="n">
         <v>1.0</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="H5" t="n">
         <v>2.0</v>
@@ -239,36 +224,36 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>12.0</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>999.0</v>
+        <v>123.0</v>
       </c>
       <c r="F6" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="H6" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -286,32 +271,6 @@
         <v>11</v>
       </c>
       <c r="H7" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" t="n">
-        <v>123.0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/src/main/resources/static/example.xlsx
+++ b/src/main/resources/static/example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>Danh sách</t>
   </si>
@@ -62,7 +62,37 @@
     <t>Product name 5</t>
   </si>
   <si>
+    <t>image-1682069882685.jpg</t>
+  </si>
+  <si>
     <t>test 1</t>
+  </si>
+  <si>
+    <t>test image</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>image1682069146758.jpg</t>
+  </si>
+  <si>
+    <t>test image 2</t>
+  </si>
+  <si>
+    <t>image-1682069997256.jpg</t>
+  </si>
+  <si>
+    <t>test image 3</t>
+  </si>
+  <si>
+    <t>image-1682070339869.jpg</t>
+  </si>
+  <si>
+    <t>test image 4</t>
+  </si>
+  <si>
+    <t>image-1682073941698.jpg</t>
   </si>
 </sst>
 </file>
@@ -107,7 +137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -236,13 +266,13 @@
         <v>10</v>
       </c>
       <c r="E6" t="n">
-        <v>123.0</v>
+        <v>127.0</v>
       </c>
       <c r="F6" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H6" t="n">
         <v>1.0</v>
@@ -253,7 +283,7 @@
         <v>8.0</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>12.0</v>
@@ -265,13 +295,117 @@
         <v>123.0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
       </c>
       <c r="H7" t="n">
         <v>1.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>13.0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>14.0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>15.0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" t="n">
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
